--- a/acme/account-creation-data.xlsx
+++ b/acme/account-creation-data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_tools\Dropbox\attended-automation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\temp\uipath-certification.github.io\acme\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -169,7 +169,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="59">
   <si>
     <t>Entry No.</t>
   </si>
@@ -210,9 +210,6 @@
     <t xml:space="preserve">N </t>
   </si>
   <si>
-    <t>Los Angeles, California(CA), 90017</t>
-  </si>
-  <si>
     <t>Part-time</t>
   </si>
   <si>
@@ -225,30 +222,9 @@
     <t>Full-time</t>
   </si>
   <si>
-    <t>Los Angeles, California(CA), 90019</t>
-  </si>
-  <si>
-    <t>Los Angeles, California(CA), 90020</t>
-  </si>
-  <si>
     <t>Unemployed</t>
   </si>
   <si>
-    <t>Los Angeles, California(CA), 90021</t>
-  </si>
-  <si>
-    <t>Los Angeles, California(CA), 90022</t>
-  </si>
-  <si>
-    <t>Los Angeles, California(CA), 90023</t>
-  </si>
-  <si>
-    <t>Los Angeles, California(CA), 90024</t>
-  </si>
-  <si>
-    <t>Los Angeles, California(CA), 90025</t>
-  </si>
-  <si>
     <t>Single</t>
   </si>
   <si>
@@ -309,24 +285,6 @@
     <t>Admin</t>
   </si>
   <si>
-    <t>James</t>
-  </si>
-  <si>
-    <t>Lacrosse</t>
-  </si>
-  <si>
-    <t>Unger</t>
-  </si>
-  <si>
-    <t>McKenzie</t>
-  </si>
-  <si>
-    <t>Hawthorne</t>
-  </si>
-  <si>
-    <t>Bent</t>
-  </si>
-  <si>
     <t>Mark</t>
   </si>
   <si>
@@ -349,6 +307,45 @@
   </si>
   <si>
     <t>555-1212</t>
+  </si>
+  <si>
+    <t>Toronto, ON, 60513</t>
+  </si>
+  <si>
+    <t>Manager</t>
+  </si>
+  <si>
+    <t>Coder</t>
+  </si>
+  <si>
+    <t>DevOps</t>
+  </si>
+  <si>
+    <t>Administrator</t>
+  </si>
+  <si>
+    <t>Tester</t>
+  </si>
+  <si>
+    <t>Chicago, IL, 60513</t>
+  </si>
+  <si>
+    <t>Chicago, IL, 60515</t>
+  </si>
+  <si>
+    <t>Chicago, IL, 60517</t>
+  </si>
+  <si>
+    <t>Boston, MA, 22323</t>
+  </si>
+  <si>
+    <t>Lisle, IL, 60514</t>
+  </si>
+  <si>
+    <t>Naperville, IL, 60516</t>
+  </si>
+  <si>
+    <t>Miami, FL, 40842</t>
   </si>
 </sst>
 </file>
@@ -718,7 +715,7 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -775,31 +772,31 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
         <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="E2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2" t="s">
         <v>13</v>
-      </c>
-      <c r="F2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="H2" t="s">
-        <v>14</v>
       </c>
       <c r="I2">
         <v>28</v>
       </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -810,28 +807,31 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
         <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H3" t="s">
         <v>16</v>
-      </c>
-      <c r="F3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="H3" t="s">
-        <v>17</v>
       </c>
       <c r="I3">
         <v>29</v>
+      </c>
+      <c r="J3" t="s">
+        <v>18</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -842,31 +842,31 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C4" t="s">
         <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="F4" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I4">
         <v>30</v>
       </c>
       <c r="J4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -877,31 +877,31 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E5" t="s">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="F5" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="H5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I5">
         <v>31.5</v>
       </c>
       <c r="J5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -912,31 +912,31 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="E6" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="F6" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="H6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I6">
         <v>32</v>
       </c>
       <c r="J6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -956,22 +956,22 @@
         <v>48</v>
       </c>
       <c r="E7" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="F7" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="H7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I7">
         <v>33</v>
       </c>
       <c r="J7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -982,7 +982,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C8" t="s">
         <v>12</v>
@@ -991,19 +991,19 @@
         <v>49</v>
       </c>
       <c r="E8" t="s">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="F8" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="I8">
         <v>34</v>
       </c>
       <c r="J8" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -1023,22 +1023,22 @@
         <v>50</v>
       </c>
       <c r="E9" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="F9" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="H9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I9">
         <v>35</v>
       </c>
       <c r="J9" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -1049,7 +1049,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="C10" t="s">
         <v>12</v>
@@ -1058,22 +1058,22 @@
         <v>51</v>
       </c>
       <c r="E10" t="s">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="F10" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="H10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I10">
         <v>36</v>
       </c>
       <c r="J10" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1135,31 +1135,31 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1168,21 +1168,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101002455D9E289DA364385601FBA5AC4DA11" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="16d6ed7bd12c4be5bde6f66442e2f569">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="30f8e2fb-c84c-458a-b8b8-1b97626067f5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8a257c24f22ef77373967f4746e8b67e" ns2:_="">
     <xsd:import namespace="30f8e2fb-c84c-458a-b8b8-1b97626067f5"/>
@@ -1352,24 +1337,22 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{795B12D8-B225-41DA-AA81-DD88C859AEE2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CD0C6A1D-D475-46B5-8954-CC39120F0E74}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C671AE69-AD69-464C-9A0B-6C0804EE315F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1385,4 +1368,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CD0C6A1D-D475-46B5-8954-CC39120F0E74}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{795B12D8-B225-41DA-AA81-DD88C859AEE2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>